--- a/reports/Debug-snowbowl-20251217/For Winter Ending (Prior Year)_Visits.xlsx
+++ b/reports/Debug-snowbowl-20251217/For Winter Ending (Prior Year)_Visits.xlsx
@@ -34,10 +34,10 @@
     <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Snowbowl Comp Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Tickets</t>
+    <t>Snowbowl Comp Tickets</t>
   </si>
   <si>
     <t>Snowbowl Uplift Tickets</t>
@@ -434,10 +434,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="C2" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -448,13 +448,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>45605</v>
+        <v>45604</v>
       </c>
       <c r="C3" s="2">
-        <v>18</v>
+        <v>789</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,13 +462,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>45607</v>
+        <v>45605</v>
       </c>
       <c r="C4" s="2">
-        <v>27</v>
+        <v>237</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -476,10 +476,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>45608</v>
+        <v>45606</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -490,13 +490,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>45608</v>
+        <v>45607</v>
       </c>
       <c r="C6" s="2">
-        <v>155</v>
+        <v>904</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,10 +504,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>45610</v>
+        <v>45609</v>
       </c>
       <c r="C7" s="2">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>5</v>
@@ -518,10 +518,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>45611</v>
+        <v>45616</v>
       </c>
       <c r="C8" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
@@ -532,13 +532,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>45612</v>
+        <v>45619</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2">
-        <v>45613</v>
+        <v>45622</v>
       </c>
       <c r="C10" s="2">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
@@ -560,13 +560,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="2">
-        <v>45614</v>
+        <v>45622</v>
       </c>
       <c r="C11" s="2">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,13 +574,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>45614</v>
+        <v>45623</v>
       </c>
       <c r="C12" s="2">
-        <v>236</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>45614</v>
+        <v>45625</v>
       </c>
       <c r="C13" s="2">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>45616</v>
+        <v>45625</v>
       </c>
       <c r="C14" s="2">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -616,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="B15" s="2">
-        <v>45617</v>
+        <v>45625</v>
       </c>
       <c r="C15" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -630,13 +630,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>45617</v>
+        <v>45626</v>
       </c>
       <c r="C16" s="2">
-        <v>209</v>
+        <v>302</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>45617</v>
+        <v>45627</v>
       </c>
       <c r="C17" s="2">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>45618</v>
+        <v>45628</v>
       </c>
       <c r="C18" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -672,13 +672,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>45618</v>
+        <v>45628</v>
       </c>
       <c r="C19" s="2">
-        <v>770</v>
+        <v>476</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="B20" s="2">
-        <v>45620</v>
+        <v>45629</v>
       </c>
       <c r="C20" s="2">
-        <v>298</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
@@ -700,10 +700,10 @@
         <v>1</v>
       </c>
       <c r="B21" s="2">
-        <v>45621</v>
+        <v>45630</v>
       </c>
       <c r="C21" s="2">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
@@ -714,10 +714,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>45621</v>
+        <v>45630</v>
       </c>
       <c r="C22" s="2">
-        <v>480</v>
+        <v>416</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>5</v>
@@ -728,13 +728,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>45623</v>
+        <v>45631</v>
       </c>
       <c r="C23" s="2">
-        <v>1</v>
+        <v>383</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,10 +742,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>45624</v>
+        <v>45632</v>
       </c>
       <c r="C24" s="2">
-        <v>583</v>
+        <v>7</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
@@ -756,13 +756,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="2">
-        <v>45627</v>
+        <v>45632</v>
       </c>
       <c r="C25" s="2">
-        <v>637</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,13 +770,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>45628</v>
+        <v>45633</v>
       </c>
       <c r="C26" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,13 +784,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>45631</v>
+        <v>45633</v>
       </c>
       <c r="C27" s="2">
-        <v>28</v>
+        <v>881</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -815,7 +815,7 @@
         <v>45634</v>
       </c>
       <c r="C29" s="2">
-        <v>93</v>
+        <v>945</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>6</v>
@@ -826,10 +826,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="2">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="C30" s="2">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -840,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="2">
-        <v>45637</v>
+        <v>45636</v>
       </c>
       <c r="C31" s="2">
-        <v>1</v>
+        <v>338</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -854,13 +854,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="2">
-        <v>45637</v>
+        <v>45638</v>
       </c>
       <c r="C32" s="2">
-        <v>778</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -871,7 +871,7 @@
         <v>45639</v>
       </c>
       <c r="C33" s="2">
-        <v>51</v>
+        <v>816</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -899,7 +899,7 @@
         <v>45640</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -910,13 +910,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="2">
-        <v>45640</v>
+        <v>45641</v>
       </c>
       <c r="C36" s="2">
-        <v>1649</v>
+        <v>13</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,10 +924,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="2">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="C37" s="2">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -938,13 +938,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="2">
-        <v>45643</v>
+        <v>45604</v>
       </c>
       <c r="C38" s="2">
-        <v>1155</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,13 +952,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="2">
-        <v>45643</v>
+        <v>45604</v>
       </c>
       <c r="C39" s="2">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -969,10 +969,10 @@
         <v>45604</v>
       </c>
       <c r="C40" s="2">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +980,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="2">
-        <v>45605</v>
+        <v>45607</v>
       </c>
       <c r="C41" s="2">
-        <v>2</v>
+        <v>473</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,13 +994,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="2">
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="C42" s="2">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1008,13 +1008,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="2">
-        <v>45607</v>
+        <v>45610</v>
       </c>
       <c r="C43" s="2">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="2">
-        <v>45607</v>
+        <v>45611</v>
       </c>
       <c r="C44" s="2">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="2">
-        <v>45608</v>
+        <v>45613</v>
       </c>
       <c r="C45" s="2">
-        <v>235</v>
+        <v>468</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,13 +1050,13 @@
         <v>1</v>
       </c>
       <c r="B46" s="2">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="C46" s="2">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1064,13 +1064,13 @@
         <v>1</v>
       </c>
       <c r="B47" s="2">
-        <v>45612</v>
+        <v>45616</v>
       </c>
       <c r="C47" s="2">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1078,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="B48" s="2">
-        <v>45615</v>
+        <v>45617</v>
       </c>
       <c r="C48" s="2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1095,10 +1095,10 @@
         <v>45618</v>
       </c>
       <c r="C49" s="2">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1106,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="B50" s="2">
-        <v>45621</v>
+        <v>45619</v>
       </c>
       <c r="C50" s="2">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
@@ -1123,10 +1123,10 @@
         <v>45621</v>
       </c>
       <c r="C51" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1134,10 +1134,10 @@
         <v>1</v>
       </c>
       <c r="B52" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C52" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
@@ -1148,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="2">
-        <v>45624</v>
+        <v>45622</v>
       </c>
       <c r="C53" s="2">
-        <v>2</v>
+        <v>415</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
@@ -1162,13 +1162,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C54" s="2">
-        <v>824</v>
+        <v>3</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,10 +1176,10 @@
         <v>1</v>
       </c>
       <c r="B55" s="2">
-        <v>45626</v>
+        <v>45623</v>
       </c>
       <c r="C55" s="2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
@@ -1190,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="B56" s="2">
-        <v>45626</v>
+        <v>45624</v>
       </c>
       <c r="C56" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -1204,13 +1204,13 @@
         <v>1</v>
       </c>
       <c r="B57" s="2">
-        <v>45627</v>
+        <v>45624</v>
       </c>
       <c r="C57" s="2">
-        <v>786</v>
+        <v>326</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,13 +1218,13 @@
         <v>1</v>
       </c>
       <c r="B58" s="2">
-        <v>45627</v>
+        <v>45625</v>
       </c>
       <c r="C58" s="2">
-        <v>160</v>
+        <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1232,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="2">
-        <v>45628</v>
+        <v>45625</v>
       </c>
       <c r="C59" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
@@ -1246,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="B60" s="2">
-        <v>45629</v>
+        <v>45625</v>
       </c>
       <c r="C60" s="2">
-        <v>40</v>
+        <v>935</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>5</v>
@@ -1260,13 +1260,13 @@
         <v>1</v>
       </c>
       <c r="B61" s="2">
-        <v>45630</v>
+        <v>45627</v>
       </c>
       <c r="C61" s="2">
-        <v>485</v>
+        <v>7</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1274,13 +1274,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="2">
-        <v>45630</v>
+        <v>45628</v>
       </c>
       <c r="C62" s="2">
-        <v>26</v>
+        <v>388</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1288,10 +1288,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="2">
-        <v>45631</v>
+        <v>45630</v>
       </c>
       <c r="C63" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>5</v>
@@ -1302,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="2">
-        <v>45633</v>
+        <v>45631</v>
       </c>
       <c r="C64" s="2">
-        <v>3</v>
+        <v>376</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>5</v>
@@ -1319,10 +1319,10 @@
         <v>45633</v>
       </c>
       <c r="C65" s="2">
-        <v>1404</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1330,13 +1330,13 @@
         <v>1</v>
       </c>
       <c r="B66" s="2">
-        <v>45633</v>
+        <v>45636</v>
       </c>
       <c r="C66" s="2">
-        <v>118</v>
+        <v>642</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1344,13 +1344,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="2">
-        <v>45634</v>
+        <v>45637</v>
       </c>
       <c r="C67" s="2">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1358,10 +1358,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="2">
-        <v>45634</v>
+        <v>45639</v>
       </c>
       <c r="C68" s="2">
-        <v>854</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>5</v>
@@ -1372,13 +1372,13 @@
         <v>1</v>
       </c>
       <c r="B69" s="2">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="C69" s="2">
-        <v>2</v>
+        <v>807</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="B70" s="2">
-        <v>45636</v>
+        <v>45640</v>
       </c>
       <c r="C70" s="2">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1400,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="B71" s="2">
-        <v>45637</v>
+        <v>45642</v>
       </c>
       <c r="C71" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>5</v>
@@ -1414,13 +1414,13 @@
         <v>1</v>
       </c>
       <c r="B72" s="2">
-        <v>45637</v>
+        <v>45642</v>
       </c>
       <c r="C72" s="2">
-        <v>535</v>
+        <v>1096</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="B73" s="2">
-        <v>45640</v>
+        <v>45643</v>
       </c>
       <c r="C73" s="2">
         <v>1</v>
@@ -1442,13 +1442,13 @@
         <v>1</v>
       </c>
       <c r="B74" s="2">
-        <v>45640</v>
+        <v>45643</v>
       </c>
       <c r="C74" s="2">
-        <v>829</v>
+        <v>78</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1456,10 +1456,10 @@
         <v>1</v>
       </c>
       <c r="B75" s="2">
-        <v>45641</v>
+        <v>45605</v>
       </c>
       <c r="C75" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>5</v>
@@ -1470,13 +1470,13 @@
         <v>1</v>
       </c>
       <c r="B76" s="2">
-        <v>45641</v>
+        <v>45606</v>
       </c>
       <c r="C76" s="2">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1484,10 +1484,10 @@
         <v>1</v>
       </c>
       <c r="B77" s="2">
-        <v>45643</v>
+        <v>45607</v>
       </c>
       <c r="C77" s="2">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>5</v>
@@ -1498,10 +1498,10 @@
         <v>1</v>
       </c>
       <c r="B78" s="2">
-        <v>45604</v>
+        <v>45608</v>
       </c>
       <c r="C78" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>5</v>
@@ -1512,13 +1512,13 @@
         <v>1</v>
       </c>
       <c r="B79" s="2">
-        <v>45604</v>
+        <v>45609</v>
       </c>
       <c r="C79" s="2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1526,13 +1526,13 @@
         <v>1</v>
       </c>
       <c r="B80" s="2">
-        <v>45604</v>
+        <v>45610</v>
       </c>
       <c r="C80" s="2">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1540,13 +1540,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="2">
-        <v>45607</v>
+        <v>45610</v>
       </c>
       <c r="C81" s="2">
-        <v>473</v>
+        <v>237</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1554,13 +1554,13 @@
         <v>1</v>
       </c>
       <c r="B82" s="2">
-        <v>45608</v>
+        <v>45612</v>
       </c>
       <c r="C82" s="2">
-        <v>3</v>
+        <v>208</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1568,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="B83" s="2">
-        <v>45610</v>
+        <v>45613</v>
       </c>
       <c r="C83" s="2">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1582,13 +1582,13 @@
         <v>1</v>
       </c>
       <c r="B84" s="2">
-        <v>45611</v>
+        <v>45613</v>
       </c>
       <c r="C84" s="2">
-        <v>0</v>
+        <v>606</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>1</v>
       </c>
       <c r="B85" s="2">
-        <v>45613</v>
+        <v>45615</v>
       </c>
       <c r="C85" s="2">
-        <v>468</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="2">
-        <v>45614</v>
+        <v>45616</v>
       </c>
       <c r="C86" s="2">
-        <v>18</v>
+        <v>317</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1627,10 +1627,10 @@
         <v>45616</v>
       </c>
       <c r="C87" s="2">
-        <v>3</v>
+        <v>202</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1638,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="B88" s="2">
-        <v>45617</v>
+        <v>45619</v>
       </c>
       <c r="C88" s="2">
-        <v>12</v>
+        <v>779</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1652,13 +1652,13 @@
         <v>1</v>
       </c>
       <c r="B89" s="2">
-        <v>45618</v>
+        <v>45619</v>
       </c>
       <c r="C89" s="2">
-        <v>60</v>
+        <v>719</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1666,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="B90" s="2">
-        <v>45619</v>
+        <v>45620</v>
       </c>
       <c r="C90" s="2">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1680,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="2">
-        <v>45621</v>
+        <v>45622</v>
       </c>
       <c r="C91" s="2">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1697,10 +1697,10 @@
         <v>45622</v>
       </c>
       <c r="C92" s="2">
-        <v>26</v>
+        <v>560</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1708,10 +1708,10 @@
         <v>1</v>
       </c>
       <c r="B93" s="2">
-        <v>45622</v>
+        <v>45623</v>
       </c>
       <c r="C93" s="2">
-        <v>415</v>
+        <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>5</v>
@@ -1725,10 +1725,10 @@
         <v>45623</v>
       </c>
       <c r="C94" s="2">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1736,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="2">
-        <v>45623</v>
+        <v>45625</v>
       </c>
       <c r="C95" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>5</v>
@@ -1750,13 +1750,13 @@
         <v>1</v>
       </c>
       <c r="B96" s="2">
-        <v>45624</v>
+        <v>45625</v>
       </c>
       <c r="C96" s="2">
-        <v>7</v>
+        <v>1117</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1764,13 +1764,13 @@
         <v>1</v>
       </c>
       <c r="B97" s="2">
-        <v>45624</v>
+        <v>45626</v>
       </c>
       <c r="C97" s="2">
-        <v>326</v>
+        <v>3</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1778,13 +1778,13 @@
         <v>1</v>
       </c>
       <c r="B98" s="2">
-        <v>45625</v>
+        <v>45626</v>
       </c>
       <c r="C98" s="2">
-        <v>1</v>
+        <v>128</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1792,10 +1792,10 @@
         <v>1</v>
       </c>
       <c r="B99" s="2">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="C99" s="2">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>5</v>
@@ -1806,10 +1806,10 @@
         <v>1</v>
       </c>
       <c r="B100" s="2">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="C100" s="2">
-        <v>935</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>5</v>
@@ -1820,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="B101" s="2">
-        <v>45627</v>
+        <v>45629</v>
       </c>
       <c r="C101" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>5</v>
@@ -1834,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="B102" s="2">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="C102" s="2">
-        <v>388</v>
+        <v>2</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>5</v>
@@ -1848,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="B103" s="2">
-        <v>45630</v>
+        <v>45631</v>
       </c>
       <c r="C103" s="2">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>5</v>
@@ -1862,10 +1862,10 @@
         <v>1</v>
       </c>
       <c r="B104" s="2">
-        <v>45631</v>
+        <v>45634</v>
       </c>
       <c r="C104" s="2">
-        <v>376</v>
+        <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>5</v>
@@ -1876,10 +1876,10 @@
         <v>1</v>
       </c>
       <c r="B105" s="2">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="C105" s="2">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>5</v>
@@ -1890,13 +1890,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="2">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="C106" s="2">
-        <v>642</v>
+        <v>2</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1904,13 +1904,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="2">
-        <v>45637</v>
+        <v>45636</v>
       </c>
       <c r="C107" s="2">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1918,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="B108" s="2">
-        <v>45639</v>
+        <v>45637</v>
       </c>
       <c r="C108" s="2">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
@@ -1932,13 +1932,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="2">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C109" s="2">
-        <v>807</v>
+        <v>29</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1946,13 +1946,13 @@
         <v>1</v>
       </c>
       <c r="B110" s="2">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C110" s="2">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1960,13 +1960,13 @@
         <v>1</v>
       </c>
       <c r="B111" s="2">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="C111" s="2">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1977,10 +1977,10 @@
         <v>45642</v>
       </c>
       <c r="C112" s="2">
-        <v>1096</v>
+        <v>6</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1988,10 +1988,10 @@
         <v>1</v>
       </c>
       <c r="B113" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="C113" s="2">
-        <v>1</v>
+        <v>602</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>5</v>
@@ -2002,13 +2002,13 @@
         <v>1</v>
       </c>
       <c r="B114" s="2">
-        <v>45643</v>
+        <v>45605</v>
       </c>
       <c r="C114" s="2">
-        <v>78</v>
+        <v>2</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2016,13 +2016,13 @@
         <v>1</v>
       </c>
       <c r="B115" s="2">
-        <v>45604</v>
+        <v>45605</v>
       </c>
       <c r="C115" s="2">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2030,10 +2030,10 @@
         <v>1</v>
       </c>
       <c r="B116" s="2">
-        <v>45604</v>
+        <v>45607</v>
       </c>
       <c r="C116" s="2">
-        <v>789</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>5</v>
@@ -2044,13 +2044,13 @@
         <v>1</v>
       </c>
       <c r="B117" s="2">
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="C117" s="2">
-        <v>237</v>
+        <v>3</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2058,13 +2058,13 @@
         <v>1</v>
       </c>
       <c r="B118" s="2">
-        <v>45606</v>
+        <v>45608</v>
       </c>
       <c r="C118" s="2">
-        <v>4</v>
+        <v>155</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2072,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="B119" s="2">
-        <v>45607</v>
+        <v>45610</v>
       </c>
       <c r="C119" s="2">
-        <v>904</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>5</v>
@@ -2086,13 +2086,13 @@
         <v>1</v>
       </c>
       <c r="B120" s="2">
-        <v>45609</v>
+        <v>45611</v>
       </c>
       <c r="C120" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2100,13 +2100,13 @@
         <v>1</v>
       </c>
       <c r="B121" s="2">
-        <v>45616</v>
+        <v>45612</v>
       </c>
       <c r="C121" s="2">
         <v>4</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2114,13 +2114,13 @@
         <v>1</v>
       </c>
       <c r="B122" s="2">
-        <v>45619</v>
+        <v>45613</v>
       </c>
       <c r="C122" s="2">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2128,10 +2128,10 @@
         <v>1</v>
       </c>
       <c r="B123" s="2">
-        <v>45622</v>
+        <v>45614</v>
       </c>
       <c r="C123" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>5</v>
@@ -2142,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="B124" s="2">
-        <v>45622</v>
+        <v>45614</v>
       </c>
       <c r="C124" s="2">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>6</v>
@@ -2156,10 +2156,10 @@
         <v>1</v>
       </c>
       <c r="B125" s="2">
-        <v>45623</v>
+        <v>45614</v>
       </c>
       <c r="C125" s="2">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>8</v>
@@ -2170,10 +2170,10 @@
         <v>1</v>
       </c>
       <c r="B126" s="2">
-        <v>45625</v>
+        <v>45616</v>
       </c>
       <c r="C126" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>5</v>
@@ -2184,13 +2184,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="2">
-        <v>45625</v>
+        <v>45617</v>
       </c>
       <c r="C127" s="2">
-        <v>162</v>
+        <v>3</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2198,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="B128" s="2">
-        <v>45625</v>
+        <v>45617</v>
       </c>
       <c r="C128" s="2">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2212,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="B129" s="2">
-        <v>45626</v>
+        <v>45617</v>
       </c>
       <c r="C129" s="2">
-        <v>302</v>
+        <v>46</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>8</v>
@@ -2226,10 +2226,10 @@
         <v>1</v>
       </c>
       <c r="B130" s="2">
-        <v>45627</v>
+        <v>45618</v>
       </c>
       <c r="C130" s="2">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>5</v>
@@ -2240,10 +2240,10 @@
         <v>1</v>
       </c>
       <c r="B131" s="2">
-        <v>45628</v>
+        <v>45618</v>
       </c>
       <c r="C131" s="2">
-        <v>6</v>
+        <v>770</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>5</v>
@@ -2254,13 +2254,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="2">
-        <v>45628</v>
+        <v>45620</v>
       </c>
       <c r="C132" s="2">
-        <v>476</v>
+        <v>298</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2268,13 +2268,13 @@
         <v>1</v>
       </c>
       <c r="B133" s="2">
-        <v>45629</v>
+        <v>45621</v>
       </c>
       <c r="C133" s="2">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2282,10 +2282,10 @@
         <v>1</v>
       </c>
       <c r="B134" s="2">
-        <v>45630</v>
+        <v>45621</v>
       </c>
       <c r="C134" s="2">
-        <v>51</v>
+        <v>480</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>5</v>
@@ -2296,10 +2296,10 @@
         <v>1</v>
       </c>
       <c r="B135" s="2">
-        <v>45630</v>
+        <v>45623</v>
       </c>
       <c r="C135" s="2">
-        <v>416</v>
+        <v>1</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>5</v>
@@ -2310,13 +2310,13 @@
         <v>1</v>
       </c>
       <c r="B136" s="2">
-        <v>45631</v>
+        <v>45624</v>
       </c>
       <c r="C136" s="2">
-        <v>383</v>
+        <v>583</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2324,10 +2324,10 @@
         <v>1</v>
       </c>
       <c r="B137" s="2">
-        <v>45632</v>
+        <v>45627</v>
       </c>
       <c r="C137" s="2">
-        <v>7</v>
+        <v>637</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>5</v>
@@ -2338,13 +2338,13 @@
         <v>1</v>
       </c>
       <c r="B138" s="2">
-        <v>45632</v>
+        <v>45628</v>
       </c>
       <c r="C138" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2352,13 +2352,13 @@
         <v>1</v>
       </c>
       <c r="B139" s="2">
-        <v>45633</v>
+        <v>45631</v>
       </c>
       <c r="C139" s="2">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2366,10 +2366,10 @@
         <v>1</v>
       </c>
       <c r="B140" s="2">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="C140" s="2">
-        <v>881</v>
+        <v>2</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>5</v>
@@ -2383,10 +2383,10 @@
         <v>45634</v>
       </c>
       <c r="C141" s="2">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2394,13 +2394,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="2">
-        <v>45634</v>
+        <v>45636</v>
       </c>
       <c r="C142" s="2">
-        <v>945</v>
+        <v>39</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2408,10 +2408,10 @@
         <v>1</v>
       </c>
       <c r="B143" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="C143" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>5</v>
@@ -2422,13 +2422,13 @@
         <v>1</v>
       </c>
       <c r="B144" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C144" s="2">
-        <v>338</v>
+        <v>778</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2436,10 +2436,10 @@
         <v>1</v>
       </c>
       <c r="B145" s="2">
-        <v>45638</v>
+        <v>45639</v>
       </c>
       <c r="C145" s="2">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>5</v>
@@ -2450,10 +2450,10 @@
         <v>1</v>
       </c>
       <c r="B146" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C146" s="2">
-        <v>816</v>
+        <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>5</v>
@@ -2481,10 +2481,10 @@
         <v>45640</v>
       </c>
       <c r="C148" s="2">
-        <v>2</v>
+        <v>1649</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2492,10 +2492,10 @@
         <v>1</v>
       </c>
       <c r="B149" s="2">
-        <v>45641</v>
+        <v>45642</v>
       </c>
       <c r="C149" s="2">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>5</v>
@@ -2506,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="B150" s="2">
-        <v>45641</v>
+        <v>45643</v>
       </c>
       <c r="C150" s="2">
-        <v>1</v>
+        <v>1155</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2520,13 +2520,13 @@
         <v>1</v>
       </c>
       <c r="B151" s="2">
-        <v>45604</v>
+        <v>45643</v>
       </c>
       <c r="C151" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2534,13 +2534,13 @@
         <v>1</v>
       </c>
       <c r="B152" s="2">
-        <v>45606</v>
+        <v>45605</v>
       </c>
       <c r="C152" s="2">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2551,10 +2551,10 @@
         <v>45606</v>
       </c>
       <c r="C153" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2562,13 +2562,13 @@
         <v>1</v>
       </c>
       <c r="B154" s="2">
-        <v>45609</v>
+        <v>45607</v>
       </c>
       <c r="C154" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2576,10 +2576,10 @@
         <v>1</v>
       </c>
       <c r="B155" s="2">
-        <v>45610</v>
+        <v>45608</v>
       </c>
       <c r="C155" s="2">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>8</v>
@@ -2590,13 +2590,13 @@
         <v>1</v>
       </c>
       <c r="B156" s="2">
-        <v>45612</v>
+        <v>45609</v>
       </c>
       <c r="C156" s="2">
-        <v>456</v>
+        <v>23</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2604,13 +2604,13 @@
         <v>1</v>
       </c>
       <c r="B157" s="2">
-        <v>45613</v>
+        <v>45609</v>
       </c>
       <c r="C157" s="2">
-        <v>217</v>
+        <v>319</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2618,13 +2618,13 @@
         <v>1</v>
       </c>
       <c r="B158" s="2">
-        <v>45614</v>
+        <v>45611</v>
       </c>
       <c r="C158" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2632,10 +2632,10 @@
         <v>1</v>
       </c>
       <c r="B159" s="2">
-        <v>45614</v>
+        <v>45612</v>
       </c>
       <c r="C159" s="2">
-        <v>320</v>
+        <v>37</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>5</v>
@@ -2646,13 +2646,13 @@
         <v>1</v>
       </c>
       <c r="B160" s="2">
-        <v>45615</v>
+        <v>45612</v>
       </c>
       <c r="C160" s="2">
-        <v>194</v>
+        <v>614</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2660,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="B161" s="2">
-        <v>45616</v>
+        <v>45614</v>
       </c>
       <c r="C161" s="2">
         <v>1</v>
@@ -2674,13 +2674,13 @@
         <v>1</v>
       </c>
       <c r="B162" s="2">
-        <v>45616</v>
+        <v>45615</v>
       </c>
       <c r="C162" s="2">
-        <v>35</v>
+        <v>247</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2691,7 +2691,7 @@
         <v>45617</v>
       </c>
       <c r="C163" s="2">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>5</v>
@@ -2702,13 +2702,13 @@
         <v>1</v>
       </c>
       <c r="B164" s="2">
-        <v>45617</v>
+        <v>45620</v>
       </c>
       <c r="C164" s="2">
-        <v>272</v>
+        <v>681</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2716,10 +2716,10 @@
         <v>1</v>
       </c>
       <c r="B165" s="2">
-        <v>45618</v>
+        <v>45620</v>
       </c>
       <c r="C165" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>5</v>
@@ -2730,13 +2730,13 @@
         <v>1</v>
       </c>
       <c r="B166" s="2">
-        <v>45618</v>
+        <v>45623</v>
       </c>
       <c r="C166" s="2">
-        <v>482</v>
+        <v>802</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2744,13 +2744,13 @@
         <v>1</v>
       </c>
       <c r="B167" s="2">
-        <v>45619</v>
+        <v>45624</v>
       </c>
       <c r="C167" s="2">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2758,13 +2758,13 @@
         <v>1</v>
       </c>
       <c r="B168" s="2">
-        <v>45620</v>
+        <v>45626</v>
       </c>
       <c r="C168" s="2">
-        <v>43</v>
+        <v>785</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2772,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="B169" s="2">
-        <v>45620</v>
+        <v>45627</v>
       </c>
       <c r="C169" s="2">
-        <v>670</v>
+        <v>3</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>5</v>
@@ -2786,13 +2786,13 @@
         <v>1</v>
       </c>
       <c r="B170" s="2">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="C170" s="2">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2800,13 +2800,13 @@
         <v>1</v>
       </c>
       <c r="B171" s="2">
-        <v>45621</v>
+        <v>45629</v>
       </c>
       <c r="C171" s="2">
-        <v>529</v>
+        <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2814,13 +2814,13 @@
         <v>1</v>
       </c>
       <c r="B172" s="2">
-        <v>45622</v>
+        <v>45629</v>
       </c>
       <c r="C172" s="2">
-        <v>9</v>
+        <v>455</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2828,10 +2828,10 @@
         <v>1</v>
       </c>
       <c r="B173" s="2">
-        <v>45623</v>
+        <v>45630</v>
       </c>
       <c r="C173" s="2">
-        <v>608</v>
+        <v>1</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>5</v>
@@ -2842,13 +2842,13 @@
         <v>1</v>
       </c>
       <c r="B174" s="2">
-        <v>45624</v>
+        <v>45630</v>
       </c>
       <c r="C174" s="2">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2856,13 +2856,13 @@
         <v>1</v>
       </c>
       <c r="B175" s="2">
-        <v>45625</v>
+        <v>45631</v>
       </c>
       <c r="C175" s="2">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2870,10 +2870,10 @@
         <v>1</v>
       </c>
       <c r="B176" s="2">
-        <v>45625</v>
+        <v>45632</v>
       </c>
       <c r="C176" s="2">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>5</v>
@@ -2884,10 +2884,10 @@
         <v>1</v>
       </c>
       <c r="B177" s="2">
-        <v>45627</v>
+        <v>45633</v>
       </c>
       <c r="C177" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>5</v>
@@ -2898,13 +2898,13 @@
         <v>1</v>
       </c>
       <c r="B178" s="2">
-        <v>45629</v>
+        <v>45634</v>
       </c>
       <c r="C178" s="2">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2912,13 +2912,13 @@
         <v>1</v>
       </c>
       <c r="B179" s="2">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="C179" s="2">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="B180" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C180" s="2">
         <v>4</v>
@@ -2940,13 +2940,13 @@
         <v>1</v>
       </c>
       <c r="B181" s="2">
-        <v>45635</v>
+        <v>45637</v>
       </c>
       <c r="C181" s="2">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2957,10 +2957,10 @@
         <v>45638</v>
       </c>
       <c r="C182" s="2">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2968,13 +2968,13 @@
         <v>1</v>
       </c>
       <c r="B183" s="2">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C183" s="2">
-        <v>49</v>
+        <v>514</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2985,7 +2985,7 @@
         <v>45640</v>
       </c>
       <c r="C184" s="2">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>5</v>
@@ -2996,13 +2996,13 @@
         <v>1</v>
       </c>
       <c r="B185" s="2">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="C185" s="2">
-        <v>1165</v>
+        <v>166</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3010,13 +3010,13 @@
         <v>1</v>
       </c>
       <c r="B186" s="2">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="C186" s="2">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3024,10 +3024,10 @@
         <v>1</v>
       </c>
       <c r="B187" s="2">
-        <v>45643</v>
+        <v>45641</v>
       </c>
       <c r="C187" s="2">
-        <v>71</v>
+        <v>802</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>5</v>
@@ -3038,10 +3038,10 @@
         <v>1</v>
       </c>
       <c r="B188" s="2">
-        <v>45597</v>
+        <v>45643</v>
       </c>
       <c r="C188" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>5</v>
@@ -3052,13 +3052,13 @@
         <v>1</v>
       </c>
       <c r="B189" s="2">
-        <v>45604</v>
+        <v>45597</v>
       </c>
       <c r="C189" s="2">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3066,13 +3066,13 @@
         <v>1</v>
       </c>
       <c r="B190" s="2">
-        <v>45606</v>
+        <v>45604</v>
       </c>
       <c r="C190" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3083,7 +3083,7 @@
         <v>45606</v>
       </c>
       <c r="C191" s="2">
-        <v>549</v>
+        <v>3</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>5</v>
@@ -3097,10 +3097,10 @@
         <v>45606</v>
       </c>
       <c r="C192" s="2">
-        <v>290</v>
+        <v>549</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3108,10 +3108,10 @@
         <v>1</v>
       </c>
       <c r="B193" s="2">
-        <v>45607</v>
+        <v>45606</v>
       </c>
       <c r="C193" s="2">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>6</v>
@@ -3122,10 +3122,10 @@
         <v>1</v>
       </c>
       <c r="B194" s="2">
-        <v>45609</v>
+        <v>45607</v>
       </c>
       <c r="C194" s="2">
-        <v>186</v>
+        <v>33</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>7</v>
@@ -3136,10 +3136,10 @@
         <v>1</v>
       </c>
       <c r="B195" s="2">
-        <v>45610</v>
+        <v>45609</v>
       </c>
       <c r="C195" s="2">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>6</v>
@@ -3150,13 +3150,13 @@
         <v>1</v>
       </c>
       <c r="B196" s="2">
-        <v>45612</v>
+        <v>45610</v>
       </c>
       <c r="C196" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3164,7 +3164,7 @@
         <v>1</v>
       </c>
       <c r="B197" s="2">
-        <v>45613</v>
+        <v>45612</v>
       </c>
       <c r="C197" s="2">
         <v>1</v>
@@ -3181,10 +3181,10 @@
         <v>45613</v>
       </c>
       <c r="C198" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3192,13 +3192,13 @@
         <v>1</v>
       </c>
       <c r="B199" s="2">
-        <v>45615</v>
+        <v>45613</v>
       </c>
       <c r="C199" s="2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3209,7 +3209,7 @@
         <v>45615</v>
       </c>
       <c r="C200" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>5</v>
@@ -3220,10 +3220,10 @@
         <v>1</v>
       </c>
       <c r="B201" s="2">
-        <v>45618</v>
+        <v>45615</v>
       </c>
       <c r="C201" s="2">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>5</v>
@@ -3234,10 +3234,10 @@
         <v>1</v>
       </c>
       <c r="B202" s="2">
-        <v>45619</v>
+        <v>45618</v>
       </c>
       <c r="C202" s="2">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>5</v>
@@ -3251,10 +3251,10 @@
         <v>45619</v>
       </c>
       <c r="C203" s="2">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3262,13 +3262,13 @@
         <v>1</v>
       </c>
       <c r="B204" s="2">
-        <v>45620</v>
+        <v>45619</v>
       </c>
       <c r="C204" s="2">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3276,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="B205" s="2">
-        <v>45621</v>
+        <v>45620</v>
       </c>
       <c r="C205" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>5</v>
@@ -3290,13 +3290,13 @@
         <v>1</v>
       </c>
       <c r="B206" s="2">
-        <v>45622</v>
+        <v>45621</v>
       </c>
       <c r="C206" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3304,13 +3304,13 @@
         <v>1</v>
       </c>
       <c r="B207" s="2">
-        <v>45623</v>
+        <v>45622</v>
       </c>
       <c r="C207" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3318,10 +3318,10 @@
         <v>1</v>
       </c>
       <c r="B208" s="2">
-        <v>45624</v>
+        <v>45623</v>
       </c>
       <c r="C208" s="2">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>5</v>
@@ -3332,13 +3332,13 @@
         <v>1</v>
       </c>
       <c r="B209" s="2">
-        <v>45625</v>
+        <v>45624</v>
       </c>
       <c r="C209" s="2">
-        <v>305</v>
+        <v>36</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3346,13 +3346,13 @@
         <v>1</v>
       </c>
       <c r="B210" s="2">
-        <v>45626</v>
+        <v>45625</v>
       </c>
       <c r="C210" s="2">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3363,7 +3363,7 @@
         <v>45626</v>
       </c>
       <c r="C211" s="2">
-        <v>757</v>
+        <v>4</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>5</v>
@@ -3374,13 +3374,13 @@
         <v>1</v>
       </c>
       <c r="B212" s="2">
-        <v>45628</v>
+        <v>45626</v>
       </c>
       <c r="C212" s="2">
-        <v>70</v>
+        <v>757</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3388,13 +3388,13 @@
         <v>1</v>
       </c>
       <c r="B213" s="2">
-        <v>45629</v>
+        <v>45628</v>
       </c>
       <c r="C213" s="2">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3405,7 +3405,7 @@
         <v>45629</v>
       </c>
       <c r="C214" s="2">
-        <v>384</v>
+        <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>5</v>
@@ -3416,10 +3416,10 @@
         <v>1</v>
       </c>
       <c r="B215" s="2">
-        <v>45632</v>
+        <v>45629</v>
       </c>
       <c r="C215" s="2">
-        <v>893</v>
+        <v>384</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>5</v>
@@ -3433,10 +3433,10 @@
         <v>45632</v>
       </c>
       <c r="C216" s="2">
-        <v>711</v>
+        <v>893</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3444,10 +3444,10 @@
         <v>1</v>
       </c>
       <c r="B217" s="2">
-        <v>45633</v>
+        <v>45632</v>
       </c>
       <c r="C217" s="2">
-        <v>152</v>
+        <v>711</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>6</v>
@@ -3458,13 +3458,13 @@
         <v>1</v>
       </c>
       <c r="B218" s="2">
-        <v>45635</v>
+        <v>45633</v>
       </c>
       <c r="C218" s="2">
-        <v>504</v>
+        <v>152</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3475,10 +3475,10 @@
         <v>45635</v>
       </c>
       <c r="C219" s="2">
-        <v>735</v>
+        <v>504</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3486,10 +3486,10 @@
         <v>1</v>
       </c>
       <c r="B220" s="2">
-        <v>45636</v>
+        <v>45635</v>
       </c>
       <c r="C220" s="2">
-        <v>63</v>
+        <v>735</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>6</v>
@@ -3500,10 +3500,10 @@
         <v>1</v>
       </c>
       <c r="B221" s="2">
-        <v>45638</v>
+        <v>45636</v>
       </c>
       <c r="C221" s="2">
-        <v>714</v>
+        <v>63</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>7</v>
@@ -3514,10 +3514,10 @@
         <v>1</v>
       </c>
       <c r="B222" s="2">
-        <v>45639</v>
+        <v>45638</v>
       </c>
       <c r="C222" s="2">
-        <v>65</v>
+        <v>714</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>6</v>
@@ -3528,13 +3528,13 @@
         <v>1</v>
       </c>
       <c r="B223" s="2">
-        <v>45641</v>
+        <v>45639</v>
       </c>
       <c r="C223" s="2">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3542,13 +3542,13 @@
         <v>1</v>
       </c>
       <c r="B224" s="2">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="C224" s="2">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3556,13 +3556,13 @@
         <v>1</v>
       </c>
       <c r="B225" s="2">
-        <v>45605</v>
+        <v>45642</v>
       </c>
       <c r="C225" s="2">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3570,10 +3570,10 @@
         <v>1</v>
       </c>
       <c r="B226" s="2">
-        <v>45606</v>
+        <v>45604</v>
       </c>
       <c r="C226" s="2">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>5</v>
@@ -3584,10 +3584,10 @@
         <v>1</v>
       </c>
       <c r="B227" s="2">
-        <v>45607</v>
+        <v>45606</v>
       </c>
       <c r="C227" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>5</v>
@@ -3598,13 +3598,13 @@
         <v>1</v>
       </c>
       <c r="B228" s="2">
-        <v>45608</v>
+        <v>45606</v>
       </c>
       <c r="C228" s="2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3615,10 +3615,10 @@
         <v>45609</v>
       </c>
       <c r="C229" s="2">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="B230" s="2">
-        <v>45609</v>
+        <v>45610</v>
       </c>
       <c r="C230" s="2">
-        <v>319</v>
+        <v>28</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3640,13 +3640,13 @@
         <v>1</v>
       </c>
       <c r="B231" s="2">
-        <v>45611</v>
+        <v>45612</v>
       </c>
       <c r="C231" s="2">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3654,13 +3654,13 @@
         <v>1</v>
       </c>
       <c r="B232" s="2">
-        <v>45612</v>
+        <v>45613</v>
       </c>
       <c r="C232" s="2">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3668,10 +3668,10 @@
         <v>1</v>
       </c>
       <c r="B233" s="2">
-        <v>45612</v>
+        <v>45614</v>
       </c>
       <c r="C233" s="2">
-        <v>614</v>
+        <v>25</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>5</v>
@@ -3685,7 +3685,7 @@
         <v>45614</v>
       </c>
       <c r="C234" s="2">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>5</v>
@@ -3699,10 +3699,10 @@
         <v>45615</v>
       </c>
       <c r="C235" s="2">
-        <v>247</v>
+        <v>194</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3710,10 +3710,10 @@
         <v>1</v>
       </c>
       <c r="B236" s="2">
-        <v>45617</v>
+        <v>45616</v>
       </c>
       <c r="C236" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>5</v>
@@ -3724,13 +3724,13 @@
         <v>1</v>
       </c>
       <c r="B237" s="2">
-        <v>45620</v>
+        <v>45616</v>
       </c>
       <c r="C237" s="2">
-        <v>681</v>
+        <v>35</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3738,10 +3738,10 @@
         <v>1</v>
       </c>
       <c r="B238" s="2">
-        <v>45620</v>
+        <v>45617</v>
       </c>
       <c r="C238" s="2">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>5</v>
@@ -3752,13 +3752,13 @@
         <v>1</v>
       </c>
       <c r="B239" s="2">
-        <v>45623</v>
+        <v>45617</v>
       </c>
       <c r="C239" s="2">
-        <v>802</v>
+        <v>272</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3766,13 +3766,13 @@
         <v>1</v>
       </c>
       <c r="B240" s="2">
-        <v>45624</v>
+        <v>45618</v>
       </c>
       <c r="C240" s="2">
-        <v>156</v>
+        <v>2</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3780,13 +3780,13 @@
         <v>1</v>
       </c>
       <c r="B241" s="2">
-        <v>45626</v>
+        <v>45618</v>
       </c>
       <c r="C241" s="2">
-        <v>785</v>
+        <v>482</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3794,10 +3794,10 @@
         <v>1</v>
       </c>
       <c r="B242" s="2">
-        <v>45627</v>
+        <v>45619</v>
       </c>
       <c r="C242" s="2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>5</v>
@@ -3808,13 +3808,13 @@
         <v>1</v>
       </c>
       <c r="B243" s="2">
-        <v>45627</v>
+        <v>45620</v>
       </c>
       <c r="C243" s="2">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3822,10 +3822,10 @@
         <v>1</v>
       </c>
       <c r="B244" s="2">
-        <v>45629</v>
+        <v>45620</v>
       </c>
       <c r="C244" s="2">
-        <v>1</v>
+        <v>670</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>5</v>
@@ -3836,13 +3836,13 @@
         <v>1</v>
       </c>
       <c r="B245" s="2">
-        <v>45629</v>
+        <v>45621</v>
       </c>
       <c r="C245" s="2">
-        <v>455</v>
+        <v>5</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3850,13 +3850,13 @@
         <v>1</v>
       </c>
       <c r="B246" s="2">
-        <v>45630</v>
+        <v>45621</v>
       </c>
       <c r="C246" s="2">
-        <v>1</v>
+        <v>529</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3864,13 +3864,13 @@
         <v>1</v>
       </c>
       <c r="B247" s="2">
-        <v>45630</v>
+        <v>45622</v>
       </c>
       <c r="C247" s="2">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3878,13 +3878,13 @@
         <v>1</v>
       </c>
       <c r="B248" s="2">
-        <v>45631</v>
+        <v>45623</v>
       </c>
       <c r="C248" s="2">
-        <v>41</v>
+        <v>608</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3892,10 +3892,10 @@
         <v>1</v>
       </c>
       <c r="B249" s="2">
-        <v>45632</v>
+        <v>45624</v>
       </c>
       <c r="C249" s="2">
-        <v>68</v>
+        <v>3</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>5</v>
@@ -3906,10 +3906,10 @@
         <v>1</v>
       </c>
       <c r="B250" s="2">
-        <v>45633</v>
+        <v>45625</v>
       </c>
       <c r="C250" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>5</v>
@@ -3920,13 +3920,13 @@
         <v>1</v>
       </c>
       <c r="B251" s="2">
-        <v>45634</v>
+        <v>45625</v>
       </c>
       <c r="C251" s="2">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3934,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="B252" s="2">
-        <v>45635</v>
+        <v>45627</v>
       </c>
       <c r="C252" s="2">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>5</v>
@@ -3948,13 +3948,13 @@
         <v>1</v>
       </c>
       <c r="B253" s="2">
-        <v>45636</v>
+        <v>45629</v>
       </c>
       <c r="C253" s="2">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3962,13 +3962,13 @@
         <v>1</v>
       </c>
       <c r="B254" s="2">
-        <v>45637</v>
+        <v>45632</v>
       </c>
       <c r="C254" s="2">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3976,10 +3976,10 @@
         <v>1</v>
       </c>
       <c r="B255" s="2">
-        <v>45638</v>
+        <v>45635</v>
       </c>
       <c r="C255" s="2">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>5</v>
@@ -3990,13 +3990,13 @@
         <v>1</v>
       </c>
       <c r="B256" s="2">
-        <v>45638</v>
+        <v>45635</v>
       </c>
       <c r="C256" s="2">
-        <v>514</v>
+        <v>65</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4004,13 +4004,13 @@
         <v>1</v>
       </c>
       <c r="B257" s="2">
-        <v>45640</v>
+        <v>45638</v>
       </c>
       <c r="C257" s="2">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4018,10 +4018,10 @@
         <v>1</v>
       </c>
       <c r="B258" s="2">
-        <v>45640</v>
+        <v>45639</v>
       </c>
       <c r="C258" s="2">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>8</v>
@@ -4032,10 +4032,10 @@
         <v>1</v>
       </c>
       <c r="B259" s="2">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="C259" s="2">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>5</v>
@@ -4049,10 +4049,10 @@
         <v>45641</v>
       </c>
       <c r="C260" s="2">
-        <v>802</v>
+        <v>1165</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4060,13 +4060,13 @@
         <v>1</v>
       </c>
       <c r="B261" s="2">
-        <v>45643</v>
+        <v>45642</v>
       </c>
       <c r="C261" s="2">
+        <v>19</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4074,10 +4074,10 @@
         <v>1</v>
       </c>
       <c r="B262" s="2">
-        <v>45605</v>
+        <v>45643</v>
       </c>
       <c r="C262" s="2">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>5</v>
@@ -4088,13 +4088,13 @@
         <v>1</v>
       </c>
       <c r="B263" s="2">
-        <v>45606</v>
+        <v>45604</v>
       </c>
       <c r="C263" s="2">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4102,10 +4102,10 @@
         <v>1</v>
       </c>
       <c r="B264" s="2">
-        <v>45607</v>
+        <v>45605</v>
       </c>
       <c r="C264" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>5</v>
@@ -4116,10 +4116,10 @@
         <v>1</v>
       </c>
       <c r="B265" s="2">
-        <v>45608</v>
+        <v>45605</v>
       </c>
       <c r="C265" s="2">
-        <v>16</v>
+        <v>512</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>5</v>
@@ -4130,13 +4130,13 @@
         <v>1</v>
       </c>
       <c r="B266" s="2">
-        <v>45609</v>
+        <v>45607</v>
       </c>
       <c r="C266" s="2">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4144,13 +4144,13 @@
         <v>1</v>
       </c>
       <c r="B267" s="2">
-        <v>45610</v>
+        <v>45607</v>
       </c>
       <c r="C267" s="2">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4158,10 +4158,10 @@
         <v>1</v>
       </c>
       <c r="B268" s="2">
-        <v>45610</v>
+        <v>45608</v>
       </c>
       <c r="C268" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>5</v>
@@ -4172,13 +4172,13 @@
         <v>1</v>
       </c>
       <c r="B269" s="2">
-        <v>45612</v>
+        <v>45611</v>
       </c>
       <c r="C269" s="2">
-        <v>208</v>
+        <v>6</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4186,13 +4186,13 @@
         <v>1</v>
       </c>
       <c r="B270" s="2">
-        <v>45613</v>
+        <v>45612</v>
       </c>
       <c r="C270" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4200,13 +4200,13 @@
         <v>1</v>
       </c>
       <c r="B271" s="2">
-        <v>45613</v>
+        <v>45615</v>
       </c>
       <c r="C271" s="2">
-        <v>606</v>
+        <v>5</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4214,13 +4214,13 @@
         <v>1</v>
       </c>
       <c r="B272" s="2">
-        <v>45615</v>
+        <v>45618</v>
       </c>
       <c r="C272" s="2">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4228,10 +4228,10 @@
         <v>1</v>
       </c>
       <c r="B273" s="2">
-        <v>45616</v>
+        <v>45621</v>
       </c>
       <c r="C273" s="2">
-        <v>317</v>
+        <v>2</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>5</v>
@@ -4242,10 +4242,10 @@
         <v>1</v>
       </c>
       <c r="B274" s="2">
-        <v>45616</v>
+        <v>45621</v>
       </c>
       <c r="C274" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>7</v>
@@ -4256,10 +4256,10 @@
         <v>1</v>
       </c>
       <c r="B275" s="2">
-        <v>45619</v>
+        <v>45623</v>
       </c>
       <c r="C275" s="2">
-        <v>779</v>
+        <v>28</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>5</v>
@@ -4270,13 +4270,13 @@
         <v>1</v>
       </c>
       <c r="B276" s="2">
-        <v>45619</v>
+        <v>45624</v>
       </c>
       <c r="C276" s="2">
-        <v>719</v>
+        <v>2</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4284,10 +4284,10 @@
         <v>1</v>
       </c>
       <c r="B277" s="2">
-        <v>45620</v>
+        <v>45624</v>
       </c>
       <c r="C277" s="2">
-        <v>55</v>
+        <v>824</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>6</v>
@@ -4298,10 +4298,10 @@
         <v>1</v>
       </c>
       <c r="B278" s="2">
-        <v>45622</v>
+        <v>45626</v>
       </c>
       <c r="C278" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>5</v>
@@ -4312,13 +4312,13 @@
         <v>1</v>
       </c>
       <c r="B279" s="2">
-        <v>45622</v>
+        <v>45626</v>
       </c>
       <c r="C279" s="2">
-        <v>560</v>
+        <v>4</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4326,13 +4326,13 @@
         <v>1</v>
       </c>
       <c r="B280" s="2">
-        <v>45623</v>
+        <v>45627</v>
       </c>
       <c r="C280" s="2">
-        <v>1</v>
+        <v>786</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4340,13 +4340,13 @@
         <v>1</v>
       </c>
       <c r="B281" s="2">
-        <v>45623</v>
+        <v>45627</v>
       </c>
       <c r="C281" s="2">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4354,10 +4354,10 @@
         <v>1</v>
       </c>
       <c r="B282" s="2">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="C282" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>5</v>
@@ -4368,13 +4368,13 @@
         <v>1</v>
       </c>
       <c r="B283" s="2">
-        <v>45625</v>
+        <v>45629</v>
       </c>
       <c r="C283" s="2">
-        <v>1117</v>
+        <v>40</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4382,13 +4382,13 @@
         <v>1</v>
       </c>
       <c r="B284" s="2">
-        <v>45626</v>
+        <v>45630</v>
       </c>
       <c r="C284" s="2">
-        <v>3</v>
+        <v>485</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4396,13 +4396,13 @@
         <v>1</v>
       </c>
       <c r="B285" s="2">
-        <v>45626</v>
+        <v>45630</v>
       </c>
       <c r="C285" s="2">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4410,10 +4410,10 @@
         <v>1</v>
       </c>
       <c r="B286" s="2">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="C286" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>5</v>
@@ -4424,10 +4424,10 @@
         <v>1</v>
       </c>
       <c r="B287" s="2">
-        <v>45628</v>
+        <v>45633</v>
       </c>
       <c r="C287" s="2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>5</v>
@@ -4438,13 +4438,13 @@
         <v>1</v>
       </c>
       <c r="B288" s="2">
-        <v>45629</v>
+        <v>45633</v>
       </c>
       <c r="C288" s="2">
-        <v>4</v>
+        <v>1404</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4452,13 +4452,13 @@
         <v>1</v>
       </c>
       <c r="B289" s="2">
-        <v>45631</v>
+        <v>45633</v>
       </c>
       <c r="C289" s="2">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4466,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="B290" s="2">
-        <v>45631</v>
+        <v>45634</v>
       </c>
       <c r="C290" s="2">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>5</v>
@@ -4483,7 +4483,7 @@
         <v>45634</v>
       </c>
       <c r="C291" s="2">
-        <v>1</v>
+        <v>854</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>5</v>
@@ -4494,10 +4494,10 @@
         <v>1</v>
       </c>
       <c r="B292" s="2">
-        <v>45634</v>
+        <v>45636</v>
       </c>
       <c r="C292" s="2">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>5</v>
@@ -4508,10 +4508,10 @@
         <v>1</v>
       </c>
       <c r="B293" s="2">
-        <v>45635</v>
+        <v>45636</v>
       </c>
       <c r="C293" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>8</v>
@@ -4522,10 +4522,10 @@
         <v>1</v>
       </c>
       <c r="B294" s="2">
-        <v>45636</v>
+        <v>45637</v>
       </c>
       <c r="C294" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>5</v>
@@ -4539,7 +4539,7 @@
         <v>45637</v>
       </c>
       <c r="C295" s="2">
-        <v>64</v>
+        <v>535</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>5</v>
@@ -4550,13 +4550,13 @@
         <v>1</v>
       </c>
       <c r="B296" s="2">
-        <v>45638</v>
+        <v>45640</v>
       </c>
       <c r="C296" s="2">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4564,10 +4564,10 @@
         <v>1</v>
       </c>
       <c r="B297" s="2">
-        <v>45639</v>
+        <v>45640</v>
       </c>
       <c r="C297" s="2">
-        <v>7</v>
+        <v>829</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>5</v>
@@ -4581,10 +4581,10 @@
         <v>45641</v>
       </c>
       <c r="C298" s="2">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4592,13 +4592,13 @@
         <v>1</v>
       </c>
       <c r="B299" s="2">
-        <v>45642</v>
+        <v>45641</v>
       </c>
       <c r="C299" s="2">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4606,10 +4606,10 @@
         <v>1</v>
       </c>
       <c r="B300" s="2">
-        <v>45642</v>
+        <v>45643</v>
       </c>
       <c r="C300" s="2">
-        <v>602</v>
+        <v>523</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>5</v>
